--- a/xlsx/加利福尼亚省_intext.xlsx
+++ b/xlsx/加利福尼亚省_intext.xlsx
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -65,25 +65,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>猶他州</t>
+    <t>犹他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E</t>
   </si>
   <si>
-    <t>懷俄明州</t>
+    <t>怀俄明州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -95,31 +95,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>下加利福尼亞半島</t>
+    <t>下加利福尼亚半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>上加利福尼亞省</t>
+    <t>上加利福尼亚省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%E5%90%84%E6%9C%83</t>
   </si>
   <si>
-    <t>方濟各會</t>
+    <t>方济各会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E6%88%91%E6%9C%83</t>
   </si>
   <si>
-    <t>多明我會</t>
+    <t>多明我会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E7%9C%81</t>
